--- a/biology/Zoologie/Chilo_sacchariphagus/Chilo_sacchariphagus.xlsx
+++ b/biology/Zoologie/Chilo_sacchariphagus/Chilo_sacchariphagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chilo sacchariphagus (foreur ponctué de la canne à sucre, ou borer de la canne à sucre) est une espèce d'insectes lépidoptères (papillons) de la famille des crambidés dont la larve se nourrit de cannes à sucre en forant leur base.
 Il est originaire de l'Asie du sud et du sud-est, où il existe les sous-espèces Chilo sacchariphagus sacchariphagus (Indonésie, Malaisie, Vietnam), C. sacchariphagus indicus (Inde) et  Chilo sacchariphagus stramineellus (sud de la Chine, Taïwan).
-En 1850, il a été introduit à Île Maurice dans des boutures de canne à sucre en provenance de Java[1], puis à La Réunion vers 1855.
-Il est aussi présent à Madagascar et aux Comores[2]. 
-En 1999 sa présence a été confirmée en Mozambique dans des plantations de canne à sucre à Mafambisse, puis, en 2001 à Marromeu[3].
+En 1850, il a été introduit à Île Maurice dans des boutures de canne à sucre en provenance de Java, puis à La Réunion vers 1855.
+Il est aussi présent à Madagascar et aux Comores. 
+En 1999 sa présence a été confirmée en Mozambique dans des plantations de canne à sucre à Mafambisse, puis, en 2001 à Marromeu.
 Il est à l'origine d'importantes pertes pour la culture de cette plante en milieu tropical, notamment pour la filière de l'île de La Réunion, où elle réapparaît régulièrement.
 </t>
         </is>
@@ -516,9 +528,11 @@
           <t>Lutte biologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gouvernement mauricien a introduit 31 espèces de parasitoides pour lutter contre Chilo sacchariphagus, seulement deux ont été introduits avec succès, Trichogramma australicum et Cotesia flavipes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouvernement mauricien a introduit 31 espèces de parasitoides pour lutter contre Chilo sacchariphagus, seulement deux ont été introduits avec succès, Trichogramma australicum et Cotesia flavipes.
 </t>
         </is>
       </c>
@@ -549,14 +563,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Procera sacchariphagus - Bojer, 1856
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Procera sacchariphagus - Bojer, 1856
 Borer saccharellus - Guenée, 1862
 Chilo mauriciellus - Walker, 1863
 Diatraea striatalis - Snellen, 1891
-Chilo venosatus- Walker, 1863
-Sous-espèces
-Selon Catalogue of Life                                   (15 août 2013)[5] :
+Chilo venosatus- Walker, 1863</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chilo_sacchariphagus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chilo_sacchariphagus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 août 2013) :
 Chilo sacchariphagus indicus Kapur, 1950
 Chilo sacchariphagus stramineella Caradja, 1926</t>
         </is>
